--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AVERAGE_1_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9224,7 +9224,7 @@
         <v>-1.6</v>
       </c>
       <c r="AG64">
-        <v>7.96955251685678</v>
+        <v>-16.02569689670956</v>
       </c>
       <c r="AH64">
         <v>9.059011788180499</v>
@@ -9316,10 +9316,10 @@
         <v>-1.6</v>
       </c>
       <c r="AG65">
-        <v>7.96955251685678</v>
+        <v>-16.02569689670956</v>
       </c>
       <c r="AH65">
-        <v>2.117788110998191</v>
+        <v>9.059011788180499</v>
       </c>
       <c r="AI65">
         <v>3.706510317809929</v>
@@ -9405,13 +9405,13 @@
         <v>-1.6</v>
       </c>
       <c r="AG66">
-        <v>7.96955251685678</v>
+        <v>-16.02569689670956</v>
       </c>
       <c r="AH66">
-        <v>2.117788110998191</v>
+        <v>9.059011788180499</v>
       </c>
       <c r="AI66">
-        <v>-0.9861240056009706</v>
+        <v>3.706510317809929</v>
       </c>
       <c r="AJ66">
         <v>3.812938874122935</v>
@@ -9491,16 +9491,16 @@
         <v>-1.6</v>
       </c>
       <c r="AG67">
-        <v>7.96955251685678</v>
+        <v>-16.02569689670956</v>
       </c>
       <c r="AH67">
-        <v>2.117788110998191</v>
+        <v>9.059011788180499</v>
       </c>
       <c r="AI67">
-        <v>-0.9861240056009706</v>
+        <v>3.706510317809929</v>
       </c>
       <c r="AJ67">
-        <v>2.876944405321424</v>
+        <v>3.812938874122935</v>
       </c>
       <c r="AK67">
         <v>2.06422287650885</v>
@@ -9574,19 +9574,19 @@
         <v>-1.6</v>
       </c>
       <c r="AG68">
-        <v>7.96955251685678</v>
+        <v>-16.02569689670956</v>
       </c>
       <c r="AH68">
-        <v>2.117788110998191</v>
+        <v>9.059011788180499</v>
       </c>
       <c r="AI68">
-        <v>-0.9861240056009706</v>
+        <v>3.706510317809929</v>
       </c>
       <c r="AJ68">
-        <v>2.876944405321424</v>
+        <v>3.812938874122935</v>
       </c>
       <c r="AK68">
-        <v>0.4364757668776207</v>
+        <v>2.06422287650885</v>
       </c>
       <c r="AL68">
         <v>-0.5616043219123981</v>
@@ -9654,22 +9654,22 @@
         <v>-1.6</v>
       </c>
       <c r="AG69">
-        <v>7.96955251685678</v>
+        <v>-16.02569689670956</v>
       </c>
       <c r="AH69">
-        <v>2.117788110998191</v>
+        <v>9.059011788180499</v>
       </c>
       <c r="AI69">
-        <v>-0.9861240056009706</v>
+        <v>3.706510317809929</v>
       </c>
       <c r="AJ69">
-        <v>2.876944405321424</v>
+        <v>3.812938874122935</v>
       </c>
       <c r="AK69">
-        <v>0.4364757668776207</v>
+        <v>2.06422287650885</v>
       </c>
       <c r="AL69">
-        <v>0.6542354095451515</v>
+        <v>-0.5616043219123981</v>
       </c>
       <c r="AM69">
         <v>5.081974971976663</v>
@@ -9731,25 +9731,25 @@
         <v>-1.6</v>
       </c>
       <c r="AG70">
-        <v>7.96955251685678</v>
+        <v>-16.02569689670956</v>
       </c>
       <c r="AH70">
-        <v>2.117788110998191</v>
+        <v>9.059011788180499</v>
       </c>
       <c r="AI70">
-        <v>-0.9861240056009706</v>
+        <v>3.706510317809929</v>
       </c>
       <c r="AJ70">
-        <v>2.876944405321424</v>
+        <v>3.812938874122935</v>
       </c>
       <c r="AK70">
-        <v>0.4364757668776207</v>
+        <v>2.06422287650885</v>
       </c>
       <c r="AL70">
-        <v>0.6542354095451515</v>
+        <v>-0.5616043219123981</v>
       </c>
       <c r="AM70">
-        <v>-1.358640149334988</v>
+        <v>5.081974971976663</v>
       </c>
       <c r="AN70">
         <v>0.9282314708180905</v>
@@ -9805,28 +9805,28 @@
         <v>-1.6</v>
       </c>
       <c r="AG71">
-        <v>7.96955251685678</v>
+        <v>-16.02569689670956</v>
       </c>
       <c r="AH71">
-        <v>2.117788110998191</v>
+        <v>9.059011788180499</v>
       </c>
       <c r="AI71">
-        <v>-0.9861240056009706</v>
+        <v>3.706510317809929</v>
       </c>
       <c r="AJ71">
-        <v>2.876944405321424</v>
+        <v>3.812938874122935</v>
       </c>
       <c r="AK71">
-        <v>0.4364757668776207</v>
+        <v>2.06422287650885</v>
       </c>
       <c r="AL71">
-        <v>0.6542354095451515</v>
+        <v>-0.5616043219123981</v>
       </c>
       <c r="AM71">
-        <v>-1.358640149334988</v>
+        <v>5.081974971976663</v>
       </c>
       <c r="AN71">
-        <v>1.767346889326234</v>
+        <v>0.9282314708180905</v>
       </c>
       <c r="AO71">
         <v>1.594077990749781</v>
@@ -9876,31 +9876,31 @@
         <v>-1.6</v>
       </c>
       <c r="AG72">
-        <v>7.96955251685678</v>
+        <v>-16.02569689670956</v>
       </c>
       <c r="AH72">
-        <v>2.117788110998191</v>
+        <v>9.059011788180499</v>
       </c>
       <c r="AI72">
-        <v>-0.9861240056009706</v>
+        <v>3.706510317809929</v>
       </c>
       <c r="AJ72">
-        <v>2.876944405321424</v>
+        <v>3.812938874122935</v>
       </c>
       <c r="AK72">
-        <v>0.4364757668776207</v>
+        <v>2.06422287650885</v>
       </c>
       <c r="AL72">
-        <v>0.6542354095451515</v>
+        <v>-0.5616043219123981</v>
       </c>
       <c r="AM72">
-        <v>-1.358640149334988</v>
+        <v>5.081974971976663</v>
       </c>
       <c r="AN72">
-        <v>1.767346889326234</v>
+        <v>0.9282314708180905</v>
       </c>
       <c r="AO72">
-        <v>0.1973819540654631</v>
+        <v>1.594077990749781</v>
       </c>
       <c r="AP72">
         <v>2.351141586996604</v>
@@ -9944,34 +9944,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>7.96955251685678</v>
+        <v>-16.02569689670956</v>
       </c>
       <c r="AH73">
-        <v>2.117788110998191</v>
+        <v>9.059011788180499</v>
       </c>
       <c r="AI73">
-        <v>-0.9861240056009706</v>
+        <v>3.706510317809929</v>
       </c>
       <c r="AJ73">
-        <v>2.876944405321424</v>
+        <v>3.812938874122935</v>
       </c>
       <c r="AK73">
-        <v>0.4364757668776207</v>
+        <v>2.06422287650885</v>
       </c>
       <c r="AL73">
-        <v>0.6542354095451515</v>
+        <v>-0.5616043219123981</v>
       </c>
       <c r="AM73">
-        <v>-1.358640149334988</v>
+        <v>5.081974971976663</v>
       </c>
       <c r="AN73">
-        <v>1.767346889326234</v>
+        <v>0.9282314708180905</v>
       </c>
       <c r="AO73">
-        <v>0.1973819540654631</v>
+        <v>1.594077990749781</v>
       </c>
       <c r="AP73">
-        <v>-2.016521230865749</v>
+        <v>2.351141586996604</v>
       </c>
       <c r="AQ73">
         <v>-1.338086018914467</v>
@@ -10011,38 +10011,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>7.96955251685678</v>
-      </c>
       <c r="AH74">
-        <v>2.117788110998191</v>
+        <v>9.059011788180499</v>
       </c>
       <c r="AI74">
-        <v>-0.9861240056009706</v>
+        <v>3.706510317809929</v>
       </c>
       <c r="AJ74">
-        <v>2.876944405321424</v>
+        <v>3.812938874122935</v>
       </c>
       <c r="AK74">
-        <v>0.4364757668776207</v>
+        <v>2.06422287650885</v>
       </c>
       <c r="AL74">
-        <v>0.6542354095451515</v>
+        <v>-0.5616043219123981</v>
       </c>
       <c r="AM74">
-        <v>-1.358640149334988</v>
+        <v>5.081974971976663</v>
       </c>
       <c r="AN74">
-        <v>1.767346889326234</v>
+        <v>0.9282314708180905</v>
       </c>
       <c r="AO74">
-        <v>0.1973819540654631</v>
+        <v>1.594077990749781</v>
       </c>
       <c r="AP74">
-        <v>-2.016521230865749</v>
+        <v>2.351141586996604</v>
       </c>
       <c r="AQ74">
-        <v>-1.429923541452922</v>
+        <v>-1.338086018914467</v>
       </c>
       <c r="AR74">
         <v>-0.9048896879718455</v>
@@ -10079,38 +10076,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>2.117788110998191</v>
-      </c>
       <c r="AI75">
-        <v>-0.9861240056009706</v>
+        <v>3.706510317809929</v>
       </c>
       <c r="AJ75">
-        <v>2.876944405321424</v>
+        <v>3.812938874122935</v>
       </c>
       <c r="AK75">
-        <v>0.4364757668776207</v>
+        <v>2.06422287650885</v>
       </c>
       <c r="AL75">
-        <v>0.6542354095451515</v>
+        <v>-0.5616043219123981</v>
       </c>
       <c r="AM75">
-        <v>-1.358640149334988</v>
+        <v>5.081974971976663</v>
       </c>
       <c r="AN75">
-        <v>1.767346889326234</v>
+        <v>0.9282314708180905</v>
       </c>
       <c r="AO75">
-        <v>0.1973819540654631</v>
+        <v>1.594077990749781</v>
       </c>
       <c r="AP75">
-        <v>-2.016521230865749</v>
+        <v>2.351141586996604</v>
       </c>
       <c r="AQ75">
-        <v>-1.429923541452922</v>
+        <v>-1.338086018914467</v>
       </c>
       <c r="AR75">
-        <v>0.1801827438520291</v>
+        <v>-0.9048896879718455</v>
       </c>
       <c r="AS75">
         <v>-0.008074312324168886</v>
@@ -10144,38 +10138,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>-0.9861240056009706</v>
-      </c>
       <c r="AJ76">
-        <v>2.876944405321424</v>
+        <v>3.812938874122935</v>
       </c>
       <c r="AK76">
-        <v>0.4364757668776207</v>
+        <v>2.06422287650885</v>
       </c>
       <c r="AL76">
-        <v>0.6542354095451515</v>
+        <v>-0.5616043219123981</v>
       </c>
       <c r="AM76">
-        <v>-1.358640149334988</v>
+        <v>5.081974971976663</v>
       </c>
       <c r="AN76">
-        <v>1.767346889326234</v>
+        <v>0.9282314708180905</v>
       </c>
       <c r="AO76">
-        <v>0.1973819540654631</v>
+        <v>1.594077990749781</v>
       </c>
       <c r="AP76">
-        <v>-2.016521230865749</v>
+        <v>2.351141586996604</v>
       </c>
       <c r="AQ76">
-        <v>-1.429923541452922</v>
+        <v>-1.338086018914467</v>
       </c>
       <c r="AR76">
-        <v>0.1801827438520291</v>
+        <v>-0.9048896879718455</v>
       </c>
       <c r="AS76">
-        <v>0.6692453970872521</v>
+        <v>-0.008074312324168886</v>
       </c>
       <c r="AT76">
         <v>-1.274764871858835</v>
@@ -10206,38 +10197,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>2.876944405321424</v>
-      </c>
       <c r="AK77">
-        <v>0.4364757668776207</v>
+        <v>2.06422287650885</v>
       </c>
       <c r="AL77">
-        <v>0.6542354095451515</v>
+        <v>-0.5616043219123981</v>
       </c>
       <c r="AM77">
-        <v>-1.358640149334988</v>
+        <v>5.081974971976663</v>
       </c>
       <c r="AN77">
-        <v>1.767346889326234</v>
+        <v>0.9282314708180905</v>
       </c>
       <c r="AO77">
-        <v>0.1973819540654631</v>
+        <v>1.594077990749781</v>
       </c>
       <c r="AP77">
-        <v>-2.016521230865749</v>
+        <v>2.351141586996604</v>
       </c>
       <c r="AQ77">
-        <v>-1.429923541452922</v>
+        <v>-1.338086018914467</v>
       </c>
       <c r="AR77">
-        <v>0.1801827438520291</v>
+        <v>-0.9048896879718455</v>
       </c>
       <c r="AS77">
-        <v>0.6692453970872521</v>
+        <v>-0.008074312324168886</v>
       </c>
       <c r="AT77">
-        <v>-1.33243152085096</v>
+        <v>-1.274764871858835</v>
       </c>
       <c r="AU77">
         <v>-1.68178591590852</v>
@@ -10265,38 +10253,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.4364757668776207</v>
-      </c>
       <c r="AL78">
-        <v>0.6542354095451515</v>
+        <v>-0.5616043219123981</v>
       </c>
       <c r="AM78">
-        <v>-1.358640149334988</v>
+        <v>5.081974971976663</v>
       </c>
       <c r="AN78">
-        <v>1.767346889326234</v>
+        <v>0.9282314708180905</v>
       </c>
       <c r="AO78">
-        <v>0.1973819540654631</v>
+        <v>1.594077990749781</v>
       </c>
       <c r="AP78">
-        <v>-2.016521230865749</v>
+        <v>2.351141586996604</v>
       </c>
       <c r="AQ78">
-        <v>-1.429923541452922</v>
+        <v>-1.338086018914467</v>
       </c>
       <c r="AR78">
-        <v>0.1801827438520291</v>
+        <v>-0.9048896879718455</v>
       </c>
       <c r="AS78">
-        <v>0.6692453970872521</v>
+        <v>-0.008074312324168886</v>
       </c>
       <c r="AT78">
-        <v>-1.33243152085096</v>
+        <v>-1.274764871858835</v>
       </c>
       <c r="AU78">
-        <v>-0.09168777270478756</v>
+        <v>-1.68178591590852</v>
       </c>
       <c r="AV78">
         <v>0.6150207087151358</v>
@@ -10321,38 +10306,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.6542354095451515</v>
-      </c>
       <c r="AM79">
-        <v>-1.358640149334988</v>
+        <v>5.081974971976663</v>
       </c>
       <c r="AN79">
-        <v>1.767346889326234</v>
+        <v>0.9282314708180905</v>
       </c>
       <c r="AO79">
-        <v>0.1973819540654631</v>
+        <v>1.594077990749781</v>
       </c>
       <c r="AP79">
-        <v>-2.016521230865749</v>
+        <v>2.351141586996604</v>
       </c>
       <c r="AQ79">
-        <v>-1.429923541452922</v>
+        <v>-1.338086018914467</v>
       </c>
       <c r="AR79">
-        <v>0.1801827438520291</v>
+        <v>-0.9048896879718455</v>
       </c>
       <c r="AS79">
-        <v>0.6692453970872521</v>
+        <v>-0.008074312324168886</v>
       </c>
       <c r="AT79">
-        <v>-1.33243152085096</v>
+        <v>-1.274764871858835</v>
       </c>
       <c r="AU79">
-        <v>-0.09168777270478756</v>
+        <v>-1.68178591590852</v>
       </c>
       <c r="AV79">
-        <v>0.8481739611978583</v>
+        <v>0.6150207087151358</v>
       </c>
       <c r="AW79">
         <v>0.0262228489182661</v>
@@ -10374,38 +10356,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>-1.358640149334988</v>
-      </c>
       <c r="AN80">
-        <v>1.767346889326234</v>
+        <v>0.9282314708180905</v>
       </c>
       <c r="AO80">
-        <v>0.1973819540654631</v>
+        <v>1.594077990749781</v>
       </c>
       <c r="AP80">
-        <v>-2.016521230865749</v>
+        <v>2.351141586996604</v>
       </c>
       <c r="AQ80">
-        <v>-1.429923541452922</v>
+        <v>-1.338086018914467</v>
       </c>
       <c r="AR80">
-        <v>0.1801827438520291</v>
+        <v>-0.9048896879718455</v>
       </c>
       <c r="AS80">
-        <v>0.6692453970872521</v>
+        <v>-0.008074312324168886</v>
       </c>
       <c r="AT80">
-        <v>-1.33243152085096</v>
+        <v>-1.274764871858835</v>
       </c>
       <c r="AU80">
-        <v>-0.09168777270478756</v>
+        <v>-1.68178591590852</v>
       </c>
       <c r="AV80">
-        <v>0.8481739611978583</v>
+        <v>0.6150207087151358</v>
       </c>
       <c r="AW80">
-        <v>-0.2604183589432552</v>
+        <v>0.0262228489182661</v>
       </c>
       <c r="AX80">
         <v>0.1551023335685926</v>
@@ -10424,38 +10403,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>1.767346889326234</v>
-      </c>
       <c r="AO81">
-        <v>0.1973819540654631</v>
+        <v>1.594077990749781</v>
       </c>
       <c r="AP81">
-        <v>-2.016521230865749</v>
+        <v>2.351141586996604</v>
       </c>
       <c r="AQ81">
-        <v>-1.429923541452922</v>
+        <v>-1.338086018914467</v>
       </c>
       <c r="AR81">
-        <v>0.1801827438520291</v>
+        <v>-0.9048896879718455</v>
       </c>
       <c r="AS81">
-        <v>0.6692453970872521</v>
+        <v>-0.008074312324168886</v>
       </c>
       <c r="AT81">
-        <v>-1.33243152085096</v>
+        <v>-1.274764871858835</v>
       </c>
       <c r="AU81">
-        <v>-0.09168777270478756</v>
+        <v>-1.68178591590852</v>
       </c>
       <c r="AV81">
-        <v>0.8481739611978583</v>
+        <v>0.6150207087151358</v>
       </c>
       <c r="AW81">
-        <v>-0.2604183589432552</v>
+        <v>0.0262228489182661</v>
       </c>
       <c r="AX81">
-        <v>0.3093370292089048</v>
+        <v>0.1551023335685926</v>
       </c>
       <c r="AY81">
         <v>0.547850509038426</v>
@@ -10471,38 +10447,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.1973819540654631</v>
-      </c>
       <c r="AP82">
-        <v>-2.016521230865749</v>
+        <v>2.351141586996604</v>
       </c>
       <c r="AQ82">
-        <v>-1.429923541452922</v>
+        <v>-1.338086018914467</v>
       </c>
       <c r="AR82">
-        <v>0.1801827438520291</v>
+        <v>-0.9048896879718455</v>
       </c>
       <c r="AS82">
-        <v>0.6692453970872521</v>
+        <v>-0.008074312324168886</v>
       </c>
       <c r="AT82">
-        <v>-1.33243152085096</v>
+        <v>-1.274764871858835</v>
       </c>
       <c r="AU82">
-        <v>-0.09168777270478756</v>
+        <v>-1.68178591590852</v>
       </c>
       <c r="AV82">
-        <v>0.8481739611978583</v>
+        <v>0.6150207087151358</v>
       </c>
       <c r="AW82">
-        <v>-0.2604183589432552</v>
+        <v>0.0262228489182661</v>
       </c>
       <c r="AX82">
-        <v>0.3093370292089048</v>
+        <v>0.1551023335685926</v>
       </c>
       <c r="AY82">
-        <v>-0.03180050048325711</v>
+        <v>0.547850509038426</v>
       </c>
       <c r="AZ82">
         <v>1.074806962785573</v>
@@ -10515,38 +10488,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>-2.016521230865749</v>
-      </c>
       <c r="AQ83">
-        <v>-1.429923541452922</v>
+        <v>-1.338086018914467</v>
       </c>
       <c r="AR83">
-        <v>0.1801827438520291</v>
+        <v>-0.9048896879718455</v>
       </c>
       <c r="AS83">
-        <v>0.6692453970872521</v>
+        <v>-0.008074312324168886</v>
       </c>
       <c r="AT83">
-        <v>-1.33243152085096</v>
+        <v>-1.274764871858835</v>
       </c>
       <c r="AU83">
-        <v>-0.09168777270478756</v>
+        <v>-1.68178591590852</v>
       </c>
       <c r="AV83">
-        <v>0.8481739611978583</v>
+        <v>0.6150207087151358</v>
       </c>
       <c r="AW83">
-        <v>-0.2604183589432552</v>
+        <v>0.0262228489182661</v>
       </c>
       <c r="AX83">
-        <v>0.3093370292089048</v>
+        <v>0.1551023335685926</v>
       </c>
       <c r="AY83">
-        <v>-0.03180050048325711</v>
+        <v>0.547850509038426</v>
       </c>
       <c r="AZ83">
-        <v>0.04735640278761366</v>
+        <v>1.074806962785573</v>
       </c>
       <c r="BA83">
         <v>1.642262942687253</v>
@@ -10556,253 +10526,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>-1.429923541452922</v>
-      </c>
       <c r="AR84">
-        <v>0.1801827438520291</v>
+        <v>-0.9048896879718455</v>
       </c>
       <c r="AS84">
-        <v>0.6692453970872521</v>
+        <v>-0.008074312324168886</v>
       </c>
       <c r="AT84">
-        <v>-1.33243152085096</v>
+        <v>-1.274764871858835</v>
       </c>
       <c r="AU84">
-        <v>-0.09168777270478756</v>
+        <v>-1.68178591590852</v>
       </c>
       <c r="AV84">
-        <v>0.8481739611978583</v>
+        <v>0.6150207087151358</v>
       </c>
       <c r="AW84">
-        <v>-0.2604183589432552</v>
+        <v>0.0262228489182661</v>
       </c>
       <c r="AX84">
-        <v>0.3093370292089048</v>
+        <v>0.1551023335685926</v>
       </c>
       <c r="AY84">
-        <v>-0.03180050048325711</v>
+        <v>0.547850509038426</v>
       </c>
       <c r="AZ84">
-        <v>0.04735640278761366</v>
+        <v>1.074806962785573</v>
       </c>
       <c r="BA84">
-        <v>0.2461857363876589</v>
+        <v>1.642262942687253</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>0.1801827438520291</v>
-      </c>
       <c r="AS85">
-        <v>0.6692453970872521</v>
+        <v>-0.008074312324168886</v>
       </c>
       <c r="AT85">
-        <v>-1.33243152085096</v>
+        <v>-1.274764871858835</v>
       </c>
       <c r="AU85">
-        <v>-0.09168777270478756</v>
+        <v>-1.68178591590852</v>
       </c>
       <c r="AV85">
-        <v>0.8481739611978583</v>
+        <v>0.6150207087151358</v>
       </c>
       <c r="AW85">
-        <v>-0.2604183589432552</v>
+        <v>0.0262228489182661</v>
       </c>
       <c r="AX85">
-        <v>0.3093370292089048</v>
+        <v>0.1551023335685926</v>
       </c>
       <c r="AY85">
-        <v>-0.03180050048325711</v>
+        <v>0.547850509038426</v>
       </c>
       <c r="AZ85">
-        <v>0.04735640278761366</v>
+        <v>1.074806962785573</v>
       </c>
       <c r="BA85">
-        <v>0.2461857363876589</v>
+        <v>1.642262942687253</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.6692453970872521</v>
-      </c>
       <c r="AT86">
-        <v>-1.33243152085096</v>
+        <v>-1.274764871858835</v>
       </c>
       <c r="AU86">
-        <v>-0.09168777270478756</v>
+        <v>-1.68178591590852</v>
       </c>
       <c r="AV86">
-        <v>0.8481739611978583</v>
+        <v>0.6150207087151358</v>
       </c>
       <c r="AW86">
-        <v>-0.2604183589432552</v>
+        <v>0.0262228489182661</v>
       </c>
       <c r="AX86">
-        <v>0.3093370292089048</v>
+        <v>0.1551023335685926</v>
       </c>
       <c r="AY86">
-        <v>-0.03180050048325711</v>
+        <v>0.547850509038426</v>
       </c>
       <c r="AZ86">
-        <v>0.04735640278761366</v>
+        <v>1.074806962785573</v>
       </c>
       <c r="BA86">
-        <v>0.2461857363876589</v>
+        <v>1.642262942687253</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>-1.33243152085096</v>
-      </c>
       <c r="AU87">
-        <v>-0.09168777270478756</v>
+        <v>-1.68178591590852</v>
       </c>
       <c r="AV87">
-        <v>0.8481739611978583</v>
+        <v>0.6150207087151358</v>
       </c>
       <c r="AW87">
-        <v>-0.2604183589432552</v>
+        <v>0.0262228489182661</v>
       </c>
       <c r="AX87">
-        <v>0.3093370292089048</v>
+        <v>0.1551023335685926</v>
       </c>
       <c r="AY87">
-        <v>-0.03180050048325711</v>
+        <v>0.547850509038426</v>
       </c>
       <c r="AZ87">
-        <v>0.04735640278761366</v>
+        <v>1.074806962785573</v>
       </c>
       <c r="BA87">
-        <v>0.2461857363876589</v>
+        <v>1.642262942687253</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>-0.09168777270478756</v>
-      </c>
       <c r="AV88">
-        <v>0.8481739611978583</v>
+        <v>0.6150207087151358</v>
       </c>
       <c r="AW88">
-        <v>-0.2604183589432552</v>
+        <v>0.0262228489182661</v>
       </c>
       <c r="AX88">
-        <v>0.3093370292089048</v>
+        <v>0.1551023335685926</v>
       </c>
       <c r="AY88">
-        <v>-0.03180050048325711</v>
+        <v>0.547850509038426</v>
       </c>
       <c r="AZ88">
-        <v>0.04735640278761366</v>
+        <v>1.074806962785573</v>
       </c>
       <c r="BA88">
-        <v>0.2461857363876589</v>
+        <v>1.642262942687253</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.8481739611978583</v>
-      </c>
       <c r="AW89">
-        <v>-0.2604183589432552</v>
+        <v>0.0262228489182661</v>
       </c>
       <c r="AX89">
-        <v>0.3093370292089048</v>
+        <v>0.1551023335685926</v>
       </c>
       <c r="AY89">
-        <v>-0.03180050048325711</v>
+        <v>0.547850509038426</v>
       </c>
       <c r="AZ89">
-        <v>0.04735640278761366</v>
+        <v>1.074806962785573</v>
       </c>
       <c r="BA89">
-        <v>0.2461857363876589</v>
+        <v>1.642262942687253</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>-0.2604183589432552</v>
-      </c>
       <c r="AX90">
-        <v>0.3093370292089048</v>
+        <v>0.1551023335685926</v>
       </c>
       <c r="AY90">
-        <v>-0.03180050048325711</v>
+        <v>0.547850509038426</v>
       </c>
       <c r="AZ90">
-        <v>0.04735640278761366</v>
+        <v>1.074806962785573</v>
       </c>
       <c r="BA90">
-        <v>0.2461857363876589</v>
+        <v>1.642262942687253</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.3093370292089048</v>
-      </c>
       <c r="AY91">
-        <v>-0.03180050048325711</v>
+        <v>0.547850509038426</v>
       </c>
       <c r="AZ91">
-        <v>0.04735640278761366</v>
+        <v>1.074806962785573</v>
       </c>
       <c r="BA91">
-        <v>0.2461857363876589</v>
+        <v>1.642262942687253</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>-0.03180050048325711</v>
-      </c>
       <c r="AZ92">
-        <v>0.04735640278761366</v>
+        <v>1.074806962785573</v>
       </c>
       <c r="BA92">
-        <v>0.2461857363876589</v>
+        <v>1.642262942687253</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>0.04735640278761366</v>
-      </c>
       <c r="BA93">
-        <v>0.2461857363876589</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.2461857363876589</v>
+        <v>1.642262942687253</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AVERAGE_1_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="BA2">
         <v>0.04899821040007168</v>
       </c>
+      <c r="BB2">
+        <v>0.04899821040007168</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="BA3">
         <v>1.885178963001849</v>
       </c>
+      <c r="BB3">
+        <v>1.885178963001849</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1015,8 +1024,11 @@
       <c r="BA4">
         <v>-1.307280175329765</v>
       </c>
+      <c r="BB4">
+        <v>-1.307280175329765</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1176,8 +1188,11 @@
       <c r="BA5">
         <v>2.75267136845396</v>
       </c>
+      <c r="BB5">
+        <v>2.75267136845396</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1337,8 +1352,11 @@
       <c r="BA6">
         <v>-4.471592960313714</v>
       </c>
+      <c r="BB6">
+        <v>-4.471592960313714</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1498,8 +1516,11 @@
       <c r="BA7">
         <v>-4.942495347902479</v>
       </c>
+      <c r="BB7">
+        <v>-4.942495347902479</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1659,8 +1680,11 @@
       <c r="BA8">
         <v>-5.434114574907241</v>
       </c>
+      <c r="BB8">
+        <v>-5.434114574907241</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1820,8 +1844,11 @@
       <c r="BA9">
         <v>4.370618442157621</v>
       </c>
+      <c r="BB9">
+        <v>4.370618442157621</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1981,8 +2008,11 @@
       <c r="BA10">
         <v>-0.9953340506219917</v>
       </c>
+      <c r="BB10">
+        <v>-0.9953340506219917</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2142,8 +2172,11 @@
       <c r="BA11">
         <v>5.692238679293155</v>
       </c>
+      <c r="BB11">
+        <v>5.692238679293155</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2300,8 +2333,11 @@
       <c r="BA12">
         <v>5.484876523251003</v>
       </c>
+      <c r="BB12">
+        <v>5.484876523251003</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2458,8 +2494,11 @@
       <c r="BA13">
         <v>0.1757137213762547</v>
       </c>
+      <c r="BB13">
+        <v>0.1757137213762547</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2613,8 +2652,11 @@
       <c r="BA14">
         <v>1.626538719806248</v>
       </c>
+      <c r="BB14">
+        <v>1.626538719806248</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2768,8 +2810,11 @@
       <c r="BA15">
         <v>2.437334396728659</v>
       </c>
+      <c r="BB15">
+        <v>2.437334396728659</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2920,8 +2965,11 @@
       <c r="BA16">
         <v>1.566144859651857</v>
       </c>
+      <c r="BB16">
+        <v>1.566144859651857</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -3072,8 +3120,11 @@
       <c r="BA17">
         <v>1.556824096124856</v>
       </c>
+      <c r="BB17">
+        <v>1.556824096124856</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3221,8 +3272,11 @@
       <c r="BA18">
         <v>0.21169683169569</v>
       </c>
+      <c r="BB18">
+        <v>0.21169683169569</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3370,8 +3424,11 @@
       <c r="BA19">
         <v>0.1582599013804469</v>
       </c>
+      <c r="BB19">
+        <v>0.1582599013804469</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3516,8 +3573,11 @@
       <c r="BA20">
         <v>-0.3253450194449812</v>
       </c>
+      <c r="BB20">
+        <v>-0.3253450194449812</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3662,8 +3722,11 @@
       <c r="BA21">
         <v>-0.15853729477206</v>
       </c>
+      <c r="BB21">
+        <v>-0.15853729477206</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3805,8 +3868,11 @@
       <c r="BA22">
         <v>0.2054976683197225</v>
       </c>
+      <c r="BB22">
+        <v>0.2054976683197225</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3948,8 +4014,11 @@
       <c r="BA23">
         <v>0.9595582875050894</v>
       </c>
+      <c r="BB23">
+        <v>0.9595582875050894</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -4088,8 +4157,11 @@
       <c r="BA24">
         <v>1.503966953576466</v>
       </c>
+      <c r="BB24">
+        <v>1.503966953576466</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4228,8 +4300,11 @@
       <c r="BA25">
         <v>1.799837015295822</v>
       </c>
+      <c r="BB25">
+        <v>1.799837015295822</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4365,8 +4440,11 @@
       <c r="BA26">
         <v>0.6518403676065248</v>
       </c>
+      <c r="BB26">
+        <v>0.6518403676065248</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4502,8 +4580,11 @@
       <c r="BA27">
         <v>0.6633823054011998</v>
       </c>
+      <c r="BB27">
+        <v>0.6633823054011998</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4636,8 +4717,11 @@
       <c r="BA28">
         <v>0.923139910942723</v>
       </c>
+      <c r="BB28">
+        <v>0.923139910942723</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4770,8 +4854,11 @@
       <c r="BA29">
         <v>0.3869820931359413</v>
       </c>
+      <c r="BB29">
+        <v>0.3869820931359413</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4901,8 +4988,11 @@
       <c r="BA30">
         <v>2.093916965767463</v>
       </c>
+      <c r="BB30">
+        <v>2.093916965767463</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -5032,8 +5122,11 @@
       <c r="BA31">
         <v>1.580888475204972</v>
       </c>
+      <c r="BB31">
+        <v>1.580888475204972</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5160,8 +5253,11 @@
       <c r="BA32">
         <v>0.3008043112709089</v>
       </c>
+      <c r="BB32">
+        <v>0.3008043112709089</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5288,8 +5384,11 @@
       <c r="BA33">
         <v>1.199598313222268</v>
       </c>
+      <c r="BB33">
+        <v>1.199598313222268</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5413,8 +5512,11 @@
       <c r="BA34">
         <v>0.4774400648527148</v>
       </c>
+      <c r="BB34">
+        <v>0.4774400648527148</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5538,8 +5640,11 @@
       <c r="BA35">
         <v>1.507463254996111</v>
       </c>
+      <c r="BB35">
+        <v>1.507463254996111</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5660,8 +5765,11 @@
       <c r="BA36">
         <v>0.2179116434425623</v>
       </c>
+      <c r="BB36">
+        <v>0.2179116434425623</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5782,8 +5890,11 @@
       <c r="BA37">
         <v>0.6120689161334525</v>
       </c>
+      <c r="BB37">
+        <v>0.6120689161334525</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5901,8 +6012,11 @@
       <c r="BA38">
         <v>2.489390679284554</v>
       </c>
+      <c r="BB38">
+        <v>2.489390679284554</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -6020,8 +6134,11 @@
       <c r="BA39">
         <v>0.5389418434166515</v>
       </c>
+      <c r="BB39">
+        <v>0.5389418434166515</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -6136,8 +6253,11 @@
       <c r="BA40">
         <v>2.40118094791471</v>
       </c>
+      <c r="BB40">
+        <v>2.40118094791471</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6252,8 +6372,11 @@
       <c r="BA41">
         <v>1.043009620608657</v>
       </c>
+      <c r="BB41">
+        <v>1.043009620608657</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6365,8 +6488,11 @@
       <c r="BA42">
         <v>1.830928398766659</v>
       </c>
+      <c r="BB42">
+        <v>1.830928398766659</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6478,8 +6604,11 @@
       <c r="BA43">
         <v>-0.3674870133197601</v>
       </c>
+      <c r="BB43">
+        <v>-0.3674870133197601</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6588,8 +6717,11 @@
       <c r="BA44">
         <v>1.62717758729876</v>
       </c>
+      <c r="BB44">
+        <v>1.62717758729876</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6698,8 +6830,11 @@
       <c r="BA45">
         <v>1.117271732844245</v>
       </c>
+      <c r="BB45">
+        <v>1.117271732844245</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6805,8 +6940,11 @@
       <c r="BA46">
         <v>0.6525147083449099</v>
       </c>
+      <c r="BB46">
+        <v>0.6525147083449099</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6912,8 +7050,11 @@
       <c r="BA47">
         <v>1.4</v>
       </c>
+      <c r="BB47">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -7016,8 +7157,11 @@
       <c r="BA48">
         <v>-0.3</v>
       </c>
+      <c r="BB48">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -7120,8 +7264,11 @@
       <c r="BA49">
         <v>-0.3</v>
       </c>
+      <c r="BB49">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7221,8 +7368,11 @@
       <c r="BA50">
         <v>0.1</v>
       </c>
+      <c r="BB50">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7322,8 +7472,11 @@
       <c r="BA51">
         <v>-1.138880770453937</v>
       </c>
+      <c r="BB51">
+        <v>-1.138880770453937</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7420,8 +7573,11 @@
       <c r="BA52">
         <v>-16.88491062648744</v>
       </c>
+      <c r="BB52">
+        <v>-16.88491062648744</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7515,8 +7671,11 @@
       <c r="BA53">
         <v>9.224715108933083</v>
       </c>
+      <c r="BB53">
+        <v>9.224715108933083</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7607,8 +7766,11 @@
       <c r="BA54">
         <v>3.283355339827622</v>
       </c>
+      <c r="BB54">
+        <v>3.283355339827622</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7696,8 +7858,11 @@
       <c r="BA55">
         <v>4.432584407022276</v>
       </c>
+      <c r="BB55">
+        <v>4.432584407022276</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7782,8 +7947,11 @@
       <c r="BA56">
         <v>2.509693347214139</v>
       </c>
+      <c r="BB56">
+        <v>2.509693347214139</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7865,8 +8033,11 @@
       <c r="BA57">
         <v>-0.4381048169788073</v>
       </c>
+      <c r="BB57">
+        <v>-0.4381048169788073</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7945,8 +8116,11 @@
       <c r="BA58">
         <v>4.106981763725997</v>
       </c>
+      <c r="BB58">
+        <v>4.106981763725997</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -8022,8 +8196,11 @@
       <c r="BA59">
         <v>0.3842995656585515</v>
       </c>
+      <c r="BB59">
+        <v>0.3842995656585515</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -8096,8 +8273,11 @@
       <c r="BA60">
         <v>2.277966437795897</v>
       </c>
+      <c r="BB60">
+        <v>2.277966437795897</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8167,8 +8347,11 @@
       <c r="BA61">
         <v>2.507553358214992</v>
       </c>
+      <c r="BB61">
+        <v>2.507553358214992</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8235,8 +8418,11 @@
       <c r="BA62">
         <v>-2.399190900254823</v>
       </c>
+      <c r="BB62">
+        <v>-2.399190900254823</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8300,8 +8486,11 @@
       <c r="BA63">
         <v>-1.115644072253531</v>
       </c>
+      <c r="BB63">
+        <v>-1.115644072253531</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8362,8 +8551,11 @@
       <c r="BA64">
         <v>0.1689348086957096</v>
       </c>
+      <c r="BB64">
+        <v>0.1689348086957096</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8421,8 +8613,11 @@
       <c r="BA65">
         <v>-1.814969742946232</v>
       </c>
+      <c r="BB65">
+        <v>-1.814969742946232</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8477,8 +8672,11 @@
       <c r="BA66">
         <v>-1.586779238813989</v>
       </c>
+      <c r="BB66">
+        <v>-1.586779238813989</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8530,8 +8728,11 @@
       <c r="BA67">
         <v>-0.2996177924633514</v>
       </c>
+      <c r="BB67">
+        <v>-0.2996177924633514</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8580,8 +8781,11 @@
       <c r="BA68">
         <v>2.757652919539751</v>
       </c>
+      <c r="BB68">
+        <v>2.757652919539751</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8627,8 +8831,11 @@
       <c r="BA69">
         <v>-0.08601690538415596</v>
       </c>
+      <c r="BB69">
+        <v>-0.08601690538415596</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8671,8 +8878,11 @@
       <c r="BA70">
         <v>-0.6801011570971838</v>
       </c>
+      <c r="BB70">
+        <v>-0.6801011570971838</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8712,8 +8922,11 @@
       <c r="BA71">
         <v>1.599728869008459</v>
       </c>
+      <c r="BB71">
+        <v>1.538981993999982</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8750,8 +8963,11 @@
       <c r="BA72">
         <v>1.642262942687253</v>
       </c>
+      <c r="BB72">
+        <v>1.68501852020853</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8785,8 +9001,11 @@
       <c r="BA73">
         <v>1.642262942687253</v>
       </c>
+      <c r="BB73">
+        <v>0.03331000006224372</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8817,8 +9036,11 @@
       <c r="BA74">
         <v>1.642262942687253</v>
       </c>
+      <c r="BB74">
+        <v>0.03331000006224372</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8846,8 +9068,11 @@
       <c r="BA75">
         <v>1.642262942687253</v>
       </c>
+      <c r="BB75">
+        <v>0.03331000006224372</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8872,8 +9097,11 @@
       <c r="BA76">
         <v>1.642262942687253</v>
       </c>
+      <c r="BB76">
+        <v>0.03331000006224372</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8895,8 +9123,11 @@
       <c r="BA77">
         <v>1.642262942687253</v>
       </c>
+      <c r="BB77">
+        <v>0.03331000006224372</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8915,8 +9146,11 @@
       <c r="BA78">
         <v>1.642262942687253</v>
       </c>
+      <c r="BB78">
+        <v>0.03331000006224372</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8932,8 +9166,11 @@
       <c r="BA79">
         <v>1.642262942687253</v>
       </c>
+      <c r="BB79">
+        <v>0.03331000006224372</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8946,8 +9183,11 @@
       <c r="BA80">
         <v>1.642262942687253</v>
       </c>
+      <c r="BB80">
+        <v>0.03331000006224372</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8957,13 +9197,27 @@
       <c r="BA81">
         <v>1.642262942687253</v>
       </c>
+      <c r="BB81">
+        <v>0.03331000006224372</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>1.642262942687253</v>
+      </c>
+      <c r="BB82">
+        <v>0.03331000006224372</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.03331000006224372</v>
       </c>
     </row>
   </sheetData>
